--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>889481.3620460988</v>
+        <v>923869.5437181301</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365224</v>
+        <v>606553.2040797154</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6804898.691492511</v>
+        <v>7343792.158431194</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>236.1608430561888</v>
       </c>
       <c r="C2" t="n">
-        <v>203.249414040535</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +819,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>120.1472970361152</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.11288841831417</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>167.8897355607411</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>59.59474737021493</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1117,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>189.9879808696998</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>198.1803920378635</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>129.4966630632843</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>46.47710458853209</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1344,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>232.7496470371894</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>17.55115381536141</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022982</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,19 +1609,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>272.1494839753895</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6626036182020879</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022982</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2087,13 +2089,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>240.9739924675</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>16.9257490316895</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>35.47248331510205</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830552</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170566</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3433,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3670,10 +3672,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3752,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>325.3560656983286</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>111.0877679785123</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>131.9969996527475</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>22.28782598961602</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3992,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4040,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>213.4944981596362</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2248.543866721967</v>
+        <v>577.3912258549058</v>
       </c>
       <c r="C2" t="n">
-        <v>2043.241428297184</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D2" t="n">
-        <v>1607.331643471629</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E2" t="n">
-        <v>1173.556898629924</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F2" t="n">
-        <v>745.6894690391318</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>344.2916376623957</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>666.6506660403358</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2653.582812821435</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2653.582812821435</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2653.582812821435</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2290.965862755261</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>2290.150812206698</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>2275.048752826413</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y2" t="n">
-        <v>2270.803033166471</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1580.166670150082</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>1473.710208986724</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.619920133277</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E3" t="n">
-        <v>1284.499505460231</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F3" t="n">
-        <v>1201.115667076393</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>1115.730577342577</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>1073.994925158789</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>1073.994925158789</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="J3" t="n">
-        <v>1398.553250125001</v>
+        <v>1331.379389918832</v>
       </c>
       <c r="K3" t="n">
-        <v>2076.018835067807</v>
+        <v>1992.21944446061</v>
       </c>
       <c r="L3" t="n">
-        <v>2079.322969911183</v>
+        <v>1992.21944446061</v>
       </c>
       <c r="M3" t="n">
-        <v>2079.322969911183</v>
+        <v>1992.21944446061</v>
       </c>
       <c r="N3" t="n">
-        <v>2079.322969911183</v>
+        <v>1992.21944446061</v>
       </c>
       <c r="O3" t="n">
-        <v>2079.322969911183</v>
+        <v>1992.21944446061</v>
       </c>
       <c r="P3" t="n">
-        <v>2079.322969911183</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>2620.061908543259</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>2673.779249085981</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>2543.600605416583</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>2367.264058416551</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>2168.14654047855</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W3" t="n">
-        <v>1982.823786211744</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X3" t="n">
-        <v>1827.956350450624</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y3" t="n">
-        <v>1701.470571229845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>961.2411428278582</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>961.2411428278582</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>795.3631500293809</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="E4" t="n">
-        <v>625.6051462801182</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="F4" t="n">
-        <v>448.8980922418745</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>283.3068172677021</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2671.404303635552</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2512.162934933549</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2266.283488512004</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1987.850487765109</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1700.894979635539</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1428.868575221831</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1183.476820555243</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1153.059761546845</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1524.114932457322</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C5" t="n">
-        <v>1085.972459640745</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3868681652491</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E5" t="n">
-        <v>482.6121233235442</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1167.464966128475</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1167.464966128475</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>1167.464966128475</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2374.617736571424</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1969.762281982458</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>1954.660222602172</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>1546.374098901826</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1580.166670150082</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>1473.710208986724</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.619920133277</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>1284.499505460231</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>1201.115667076393</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>1115.730577342577</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>1073.994925158789</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>1073.994925158789</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>1073.994925158789</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K6" t="n">
-        <v>1073.994925158789</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="L6" t="n">
-        <v>1073.994925158789</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="M6" t="n">
-        <v>1751.460510101595</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="N6" t="n">
-        <v>2428.9260950444</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="O6" t="n">
-        <v>2737.234686637598</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P6" t="n">
-        <v>2737.234686637598</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q6" t="n">
-        <v>2737.234686637598</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>2737.234686637598</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>2673.779249085981</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>2543.600605416583</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>2367.264058416551</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>2168.14654047855</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>1982.823786211744</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>1827.956350450624</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>1701.470571229845</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1045.142905119309</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>872.5811936025335</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>706.7032008040562</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>536.9451970547935</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>360.2381430165498</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G7" t="n">
-        <v>194.6468680423774</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2512.162934933549</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2266.283488512004</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1987.850487765109</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1700.894979635539</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1428.868575221831</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1428.868575221831</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1236.961523838296</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1078.651074442687</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>640.5086016261107</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>509.7038914611771</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>479.9695506598763</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>456.1425251094881</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1344.116250983141</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>2021.581835925947</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>2021.581835925947</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>2021.581835925947</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2737.234686637598</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.379232048631</v>
+        <v>2410.023473199882</v>
       </c>
       <c r="X8" t="n">
-        <v>1913.236768627942</v>
+        <v>2394.921413819597</v>
       </c>
       <c r="Y8" t="n">
-        <v>1504.950644927595</v>
+        <v>2390.675694159654</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>80.80836689320955</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>245.8805072316101</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>245.8805072316101</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>245.8805072316101</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>923.3460921744155</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1600.811677117221</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1600.811677117221</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1600.811677117221</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>742.8207098557364</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>742.8207098557364</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>576.9427170572591</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>407.1847133079963</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>407.1847133079963</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>241.593438333824</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>101.6912640241985</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2490.74511363892</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2244.865667217376</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1966.432666470481</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1679.477158340911</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1407.450753927203</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1162.058999260615</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.6393285747235</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>344.2916376623957</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C11" t="n">
-        <v>344.2916376623957</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D11" t="n">
-        <v>344.2916376623957</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E11" t="n">
-        <v>344.2916376623957</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>344.2916376623957</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>344.2916376623957</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>55.16148310561195</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>666.6506660403358</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>666.6506660403358</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M11" t="n">
-        <v>666.6506660403358</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N11" t="n">
-        <v>666.6506660403358</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2653.582812821435</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>2433.515585694473</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>2174.293283011491</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>1811.676332945317</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>1406.82087835635</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>987.678414935661</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>579.3922912353144</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>80.80836689320955</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>405.3666918594219</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>923.3460921744155</v>
+        <v>479.4321036325088</v>
       </c>
       <c r="L12" t="n">
-        <v>923.3460921744155</v>
+        <v>479.4321036325088</v>
       </c>
       <c r="M12" t="n">
-        <v>1600.811677117221</v>
+        <v>479.4321036325088</v>
       </c>
       <c r="N12" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="O12" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P12" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1133.802854344633</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C13" t="n">
-        <v>961.2411428278582</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D13" t="n">
-        <v>795.3631500293809</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E13" t="n">
-        <v>625.6051462801182</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F13" t="n">
-        <v>448.8980922418745</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G13" t="n">
-        <v>283.3068172677021</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.404303635552</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.524857214007</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>2357.414810959378</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>2070.459302829808</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1798.4328984161</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1553.041143749512</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y13" t="n">
-        <v>1325.62147306362</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>456.1425251094881</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C14" t="n">
-        <v>456.1425251094881</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D14" t="n">
-        <v>456.1425251094881</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E14" t="n">
-        <v>456.1425251094881</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F14" t="n">
-        <v>456.1425251094881</v>
+        <v>368.6685679808633</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>54.74469373275195</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>732.2102786755574</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>732.2102786755574</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="N14" t="n">
-        <v>732.2102786755574</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="O14" t="n">
-        <v>1409.675863618363</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P14" t="n">
-        <v>2087.141448561168</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q14" t="n">
-        <v>2633.640234519763</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>2736.565390053555</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
-        <v>2477.343087370572</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V14" t="n">
-        <v>2114.726137304398</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W14" t="n">
-        <v>1709.870682715431</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X14" t="n">
-        <v>1290.728219294742</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y14" t="n">
-        <v>882.4420955943958</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J15" t="n">
-        <v>405.3666918594219</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K15" t="n">
-        <v>1082.832276802227</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L15" t="n">
-        <v>1082.832276802227</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M15" t="n">
-        <v>1082.832276802227</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N15" t="n">
-        <v>1082.832276802227</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="O15" t="n">
-        <v>1082.832276802227</v>
+        <v>937.2866943184646</v>
       </c>
       <c r="P15" t="n">
-        <v>1082.832276802227</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1133.802854344633</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C16" t="n">
-        <v>961.2411428278582</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D16" t="n">
-        <v>795.3631500293809</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E16" t="n">
-        <v>625.6051462801182</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F16" t="n">
-        <v>448.8980922418745</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G16" t="n">
-        <v>283.3068172677021</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.404303635552</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.524857214007</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2357.414810959378</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>2070.459302829808</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1798.4328984161</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1553.041143749512</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y16" t="n">
-        <v>1325.62147306362</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,13 +5518,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5540,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5704,19 +5706,19 @@
         <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5735,10 +5737,10 @@
         <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5753,16 +5755,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993934</v>
@@ -5835,16 +5837,16 @@
         <v>1107.552685307369</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2559.679081471576</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.271008272081</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5987,22 +5989,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3184.458419759167</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C25" t="n">
-        <v>3148.627628531791</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D25" t="n">
-        <v>2982.749635733314</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E25" t="n">
-        <v>2812.991631984051</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F25" t="n">
-        <v>2636.284577945808</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G25" t="n">
-        <v>2636.284577945808</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I25" t="n">
         <v>2496.382403636182</v>
@@ -6172,25 +6174,25 @@
         <v>5091.624192244353</v>
       </c>
       <c r="S25" t="n">
-        <v>4932.38282354235</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="T25" t="n">
-        <v>4686.503377120805</v>
+        <v>5077.485521609701</v>
       </c>
       <c r="U25" t="n">
-        <v>4408.070376373911</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V25" t="n">
-        <v>4121.114868244342</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W25" t="n">
-        <v>3849.088463830633</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X25" t="n">
-        <v>3603.696709164046</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y25" t="n">
-        <v>3376.277038478154</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740236</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3205.876241053795</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>3033.31452953702</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>2867.436536738543</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>2697.67853298928</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>2520.971478951036</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>4953.800644836978</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>4707.921198415434</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>4429.488197668539</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>4142.53268953897</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>3870.506285125261</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>3625.114530458674</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>3397.694859772782</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6540,28 +6542,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>388.1086717343205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>388.1086717343205</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1463.16863798718</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6938,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>306.120802776629</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>306.120802776629</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,49 +7177,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>605.8694973157614</v>
       </c>
       <c r="L38" t="n">
-        <v>1612.575493976557</v>
+        <v>1680.929463568621</v>
       </c>
       <c r="M38" t="n">
-        <v>2769.623329187108</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N38" t="n">
-        <v>3895.354312623555</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O38" t="n">
-        <v>4875.533979193861</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P38" t="n">
-        <v>4875.533979193861</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238763</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1790.439125807381</v>
+        <v>2447.237176554639</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.296652990805</v>
+        <v>2009.094703738062</v>
       </c>
       <c r="D41" t="n">
-        <v>916.3868681652491</v>
+        <v>1573.184918912507</v>
       </c>
       <c r="E41" t="n">
-        <v>482.6121233235442</v>
+        <v>1139.410174070802</v>
       </c>
       <c r="F41" t="n">
-        <v>54.74469373275195</v>
+        <v>711.5427444800098</v>
       </c>
       <c r="G41" t="n">
-        <v>54.74469373275195</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>327.1618243315923</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>1161.51211628977</v>
       </c>
       <c r="L41" t="n">
-        <v>54.74469373275195</v>
+        <v>2236.57208254263</v>
       </c>
       <c r="M41" t="n">
-        <v>54.74469373275195</v>
+        <v>3393.61991775318</v>
       </c>
       <c r="N41" t="n">
-        <v>732.2102786755574</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="O41" t="n">
-        <v>1409.675863618363</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="P41" t="n">
-        <v>2087.141448561168</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="Q41" t="n">
-        <v>2633.640234519763</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>4105.820788749549</v>
       </c>
       <c r="W41" t="n">
-        <v>2737.234686637598</v>
+        <v>3700.965334160583</v>
       </c>
       <c r="X41" t="n">
-        <v>2625.024819992636</v>
+        <v>3281.822870739893</v>
       </c>
       <c r="Y41" t="n">
-        <v>2216.738696292289</v>
+        <v>2873.536747039547</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1133.802854344633</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C43" t="n">
-        <v>961.2411428278582</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D43" t="n">
-        <v>795.3631500293809</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>625.6051462801182</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
-        <v>448.8980922418745</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>283.3068172677021</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2649.986482340924</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2490.74511363892</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2490.74511363892</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>2357.414810959378</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>2070.459302829808</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1798.4328984161</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1553.041143749512</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>1325.62147306362</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1754.111273740401</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C44" t="n">
-        <v>1754.111273740401</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>1318.201488914845</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>884.4267440731403</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>456.5593144823481</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>55.16148310561195</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>54.74469373275195</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>54.74469373275195</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>666.6506660403358</v>
+        <v>3595.48288019336</v>
       </c>
       <c r="N44" t="n">
-        <v>1344.116250983141</v>
+        <v>3708.325299372378</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>2374.617736571424</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>1969.762281982458</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X44" t="n">
-        <v>1754.111273740401</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y44" t="n">
-        <v>1754.111273740401</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>3531.436949455168</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>3424.98048829181</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>3329.890199438363</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>3235.769784765317</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>3152.385946381479</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>3067.000856647663</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>3025.265204463875</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80836689320955</v>
+        <v>3051.328877624333</v>
       </c>
       <c r="J45" t="n">
-        <v>405.3666918594219</v>
+        <v>3375.887202590545</v>
       </c>
       <c r="K45" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>4571.332187848344</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>4625.049528391067</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>4494.870884721669</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>4318.534337721637</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>4119.416819783636</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>3934.09406551683</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>3779.22662975571</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>3652.740850534931</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>905.2407308096831</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C46" t="n">
-        <v>732.679019292908</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>566.8010264944307</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>397.0430227451681</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
-        <v>220.3359687069243</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2653.165134592867</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2407.285688171322</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>2128.852687424428</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1841.897179294858</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1569.87077488115</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1324.479020214562</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.05934952867</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7988,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>178.4356412673393</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8058,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
-        <v>3.33750994280399</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8216,10 +8218,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8292,22 +8294,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>566.3319231075541</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911093</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,13 +8455,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>178.4356412673392</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8468,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8529,19 +8531,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>166.7395356953541</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>618.0868407147311</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,16 +8771,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>523.2115154696905</v>
+        <v>35.39394564341939</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>713.2395913281089</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>104.640860725086</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>852.0369646460716</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>523.2115154696905</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9173,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1859873202736</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9401,19 +9403,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9483,19 +9485,19 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>0.03656536949893052</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>946.7571087441338</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9711,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7389601124028</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9896,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10133,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10190,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>407.4230472303479</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>288.7351832965059</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10358,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>205.9191540463125</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10601,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10841,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>239.9071053991111</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>235.7492171845845</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593995</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.640860725086</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>618.0868407147311</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593995</v>
+        <v>113.9822415949675</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>189.2869277428692</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>125.2343690875792</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.2039512374897</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.67467827192567</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>135.3636110865053</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.4233680290237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.592177662725</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25558,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>72.02778736464012</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25679,19 +25681,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>303.8632708079701</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>143.6516710866782</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>411.4732220987949</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>201.4565406268462</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>642845.7360527271</v>
+        <v>642448.7588946238</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>642845.7360527271</v>
+        <v>642448.7588946238</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>642845.7360527271</v>
+        <v>642448.7588946238</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>421162.0830327555</v>
+        <v>605989.9258722579</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>421162.0830327554</v>
+        <v>605989.9258722579</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>646202.8412970853</v>
+        <v>646202.8412970852</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>646202.8412970852</v>
+        <v>646202.8412970853</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>646202.8412970853</v>
+        <v>646202.8412970852</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>421162.0830327554</v>
+        <v>605989.9258722579</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>421162.0830327554</v>
+        <v>605989.9258722579</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26319,19 @@
         <v>321688.391934245</v>
       </c>
       <c r="D2" t="n">
-        <v>321688.3919342451</v>
+        <v>321688.391934245</v>
       </c>
       <c r="E2" t="n">
-        <v>206027.3555759991</v>
+        <v>296442.8825931295</v>
       </c>
       <c r="F2" t="n">
-        <v>206027.355575999</v>
+        <v>296442.8825931295</v>
       </c>
       <c r="G2" t="n">
-        <v>316114.5504824114</v>
+        <v>316114.5504824113</v>
       </c>
       <c r="H2" t="n">
-        <v>316114.5504824114</v>
+        <v>316114.5504824113</v>
       </c>
       <c r="I2" t="n">
         <v>316114.5504824113</v>
@@ -26350,10 +26352,10 @@
         <v>316114.5504824113</v>
       </c>
       <c r="O2" t="n">
-        <v>206027.3555759991</v>
+        <v>296442.8825931296</v>
       </c>
       <c r="P2" t="n">
-        <v>206027.355575999</v>
+        <v>296442.8825931296</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136827.6970079677</v>
+        <v>139383.7472389046</v>
       </c>
       <c r="C4" t="n">
-        <v>136827.6970079677</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>136827.6970079677</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>26801.8445423323</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="F4" t="n">
-        <v>26801.8445423323</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="G4" t="n">
         <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26454,10 +26456,10 @@
         <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>26801.8445423323</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="P4" t="n">
-        <v>26801.8445423323</v>
+        <v>38563.8889201347</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-119700.4472831271</v>
+        <v>-115607.5784504621</v>
       </c>
       <c r="C6" t="n">
-        <v>109627.1276893858</v>
+        <v>108092.1201335828</v>
       </c>
       <c r="D6" t="n">
-        <v>109627.127689386</v>
+        <v>108092.1201335828</v>
       </c>
       <c r="E6" t="n">
-        <v>137619.5437967753</v>
+        <v>35947.96461891805</v>
       </c>
       <c r="F6" t="n">
-        <v>137619.5437967753</v>
+        <v>186613.7181906661</v>
       </c>
       <c r="G6" t="n">
-        <v>34480.07214826471</v>
+        <v>168183.5507740983</v>
       </c>
       <c r="H6" t="n">
-        <v>197273.3599467062</v>
+        <v>197273.3599467061</v>
       </c>
       <c r="I6" t="n">
         <v>197273.3599467061</v>
       </c>
       <c r="J6" t="n">
-        <v>18228.10185905419</v>
+        <v>22622.011229</v>
       </c>
       <c r="K6" t="n">
-        <v>197273.3599467061</v>
+        <v>197273.359946706</v>
       </c>
       <c r="L6" t="n">
-        <v>197273.3599467061</v>
+        <v>197273.359946706</v>
       </c>
       <c r="M6" t="n">
-        <v>197273.3599467061</v>
+        <v>71522.27161101528</v>
       </c>
       <c r="N6" t="n">
         <v>197273.3599467061</v>
       </c>
       <c r="O6" t="n">
-        <v>137619.5437967753</v>
+        <v>186613.7181906661</v>
       </c>
       <c r="P6" t="n">
-        <v>137619.5437967753</v>
+        <v>186613.7181906661</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>185.8757317238699</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>230.5116340478759</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>54.79268646174609</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.0325855607186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>369.8422500230728</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>263.6609514165588</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27673,13 +27675,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>84.63380825304846</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>35.15749310933296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>223.8561827421952</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>302.0540239140156</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>41.29624514453932</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34708,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>178.4356412673393</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
-        <v>3.33750994280399</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34936,10 +34938,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>566.3319231075541</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911093</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35036,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35173,13 +35175,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>178.4356412673392</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,7 +35190,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35249,19 +35251,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>166.7395356953541</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>618.0868407147311</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>523.2115154696905</v>
+        <v>35.39394564341939</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35576,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>713.2395913281089</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>104.640860725086</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>852.0369646460716</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>523.2115154696905</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35813,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35884,7 +35886,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1859873202736</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36121,19 +36123,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36203,19 +36205,19 @@
         <v>687.6096162327043</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>0.03656536949893052</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36355,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>946.7571087441338</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7389601124028</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36616,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36853,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36910,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,7 +36922,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>407.4230472303479</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>288.7351832965059</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,7 +37080,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37090,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37306,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>205.9191540463125</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37321,13 +37323,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>239.9071053991111</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>235.7492171845845</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593995</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.640860725086</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,7 +37946,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>618.0868407147311</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593995</v>
+        <v>113.9822415949675</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38183,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>923869.5437181301</v>
+        <v>923263.456089233</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074005</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797154</v>
+        <v>606553.2040797152</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.1608430561888</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>56.64050272450903</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -721,13 +721,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1472970361152</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>59.59474737021493</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.1803920378635</v>
+        <v>335.4789331224958</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>131.996999652747</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>10.56335268126377</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1378,7 +1378,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>17.55115381536141</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480022982</v>
+        <v>94.21878984361673</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1621,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>272.1494839753895</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>75.132773963418</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480022982</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2301,13 +2301,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>133.9425292830646</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.9257490316895</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>13.99728392830552</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>94.50264048967837</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>5.990622819018409</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3483,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3754,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>325.3560656983286</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>62.61079093391906</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>43.48898701015895</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>22.28782598961602</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>62.61079093391906</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>577.3912258549058</v>
+        <v>1702.080476705852</v>
       </c>
       <c r="C2" t="n">
-        <v>543.2891570787331</v>
+        <v>1263.938003889276</v>
       </c>
       <c r="D2" t="n">
-        <v>511.4197762935816</v>
+        <v>828.0282190637201</v>
       </c>
       <c r="E2" t="n">
-        <v>77.64503145187676</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148855</v>
@@ -4333,16 +4333,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.221573682271</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W2" t="n">
-        <v>1643.366119093304</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X2" t="n">
-        <v>1224.223655672615</v>
+        <v>1728.585362810299</v>
       </c>
       <c r="Y2" t="n">
-        <v>815.9375319722682</v>
+        <v>1724.339643150356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1006.821064952619</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1331.379389918832</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1992.21944446061</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1992.21944446061</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1992.21944446061</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1992.21944446061</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1992.21944446061</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4470,19 +4470,19 @@
         <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>568.9155211348371</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E4" t="n">
-        <v>568.9155211348371</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1011.477214236518</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C5" t="n">
-        <v>573.3347414199409</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D5" t="n">
-        <v>137.4249565943854</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
         <v>77.22824207901677</v>
@@ -4573,13 +4573,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>1846.062908421772</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y5" t="n">
-        <v>1437.776784721425</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2190.493479979994</v>
+        <v>173.3508218145016</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.351007163417</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.441222337862</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>882.6664774961569</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4810,13 +4810,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2410.838523748444</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2410.838523748444</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2410.023473199882</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>2394.921413819597</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>2390.675694159654</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4986,13 +4986,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434797</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
         <v>2356.071333755254</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.363000055493</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C11" t="n">
-        <v>1666.220527238916</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D11" t="n">
-        <v>1230.31074241336</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.582304216026</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F11" t="n">
-        <v>784.7148746252335</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3170432484974</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171368</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I11" t="n">
         <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>529.0247867717716</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K11" t="n">
-        <v>1363.37507872995</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L11" t="n">
-        <v>1363.37507872995</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M11" t="n">
-        <v>1363.37507872995</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="N11" t="n">
         <v>2164.36257382733</v>
@@ -5123,22 +5123,22 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>479.4321036325088</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>479.4321036325088</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>479.4321036325088</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8461154418378</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C13" t="n">
-        <v>609.2844039250627</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4064111265855</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E13" t="n">
-        <v>273.6484073773227</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F13" t="n">
-        <v>96.94135333907892</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885368</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885368</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I13" t="n">
         <v>93.77009931885368</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2529.770519225022</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T13" t="n">
-        <v>2283.891072803477</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U13" t="n">
-        <v>2005.458072056582</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V13" t="n">
-        <v>1718.502563927013</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W13" t="n">
-        <v>1446.476159513304</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X13" t="n">
-        <v>1201.084404846717</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y13" t="n">
-        <v>973.664734160825</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2104.363000055493</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>1666.220527238916</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>1230.31074241336</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>796.5359975716556</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>368.6685679808633</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>93.77009931885368</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
         <v>93.77009931885368</v>
@@ -5284,13 +5284,13 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2438.435044982809</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="M14" t="n">
-        <v>3144.542240397637</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N14" t="n">
-        <v>3144.542240397637</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O14" t="n">
         <v>3144.542240397637</v>
@@ -5305,25 +5305,25 @@
         <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126521</v>
+        <v>4612.613275070545</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.78586499956</v>
+        <v>4392.546047943583</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316576</v>
+        <v>4133.3237452606</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250403</v>
+        <v>3770.706795194426</v>
       </c>
       <c r="W14" t="n">
-        <v>3358.091157661436</v>
+        <v>3365.851340605459</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.948694240747</v>
+        <v>2946.70887718477</v>
       </c>
       <c r="Y14" t="n">
-        <v>2530.6625705404</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>937.2866943184646</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
         <v>1757.009860797663</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8461154418378</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C16" t="n">
-        <v>609.2844039250627</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D16" t="n">
-        <v>443.4064111265855</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E16" t="n">
-        <v>273.6484073773227</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F16" t="n">
-        <v>96.94135333907892</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G16" t="n">
         <v>93.77009931885368</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T16" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U16" t="n">
-        <v>2005.458072056582</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V16" t="n">
-        <v>1718.502563927013</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W16" t="n">
-        <v>1446.476159513304</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X16" t="n">
-        <v>1201.084404846717</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y16" t="n">
-        <v>973.664734160825</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5524,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5542,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5755,49 +5755,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="23">
@@ -5989,22 +5989,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5091.624192244353</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>5077.485521609701</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>4799.052520862807</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>4512.097012733238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910045</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6940,22 +6940,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>108.3119744314043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,28 +7177,28 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>605.8694973157614</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1680.929463568621</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2837.977298779172</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N38" t="n">
-        <v>3963.708282215619</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O38" t="n">
-        <v>4943.887948785925</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2447.237176554639</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>2009.094703738062</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1573.184918912507</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>1139.410174070802</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>711.5427444800098</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
         <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>327.1618243315923</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>1161.51211628977</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2236.57208254263</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>3393.61991775318</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>4519.350901189628</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>4519.350901189628</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>4519.350901189628</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
         <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.504965942684</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>4468.437738815723</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="U41" t="n">
-        <v>4468.437738815723</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V41" t="n">
-        <v>4105.820788749549</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W41" t="n">
-        <v>3700.965334160583</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X41" t="n">
-        <v>3281.822870739893</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2873.536747039547</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>944.266136395785</v>
+        <v>918.5770357312381</v>
       </c>
       <c r="C43" t="n">
-        <v>771.7044248790099</v>
+        <v>746.015324214463</v>
       </c>
       <c r="D43" t="n">
-        <v>605.8264320805326</v>
+        <v>580.1373314159857</v>
       </c>
       <c r="E43" t="n">
-        <v>436.0684283312698</v>
+        <v>410.3793276667229</v>
       </c>
       <c r="F43" t="n">
-        <v>259.361374293026</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885368</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H43" t="n">
         <v>93.77009931885368</v>
@@ -7596,25 +7596,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2692.190540178969</v>
+        <v>2666.501439514422</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.311093757424</v>
+        <v>2420.621993092877</v>
       </c>
       <c r="U43" t="n">
-        <v>2167.878093010529</v>
+        <v>2142.188992345983</v>
       </c>
       <c r="V43" t="n">
-        <v>1880.92258488096</v>
+        <v>1855.233484216413</v>
       </c>
       <c r="W43" t="n">
-        <v>1608.896180467251</v>
+        <v>1583.207079802705</v>
       </c>
       <c r="X43" t="n">
-        <v>1363.504425800664</v>
+        <v>1337.815325136117</v>
       </c>
       <c r="Y43" t="n">
-        <v>1136.084755114772</v>
+        <v>1110.395654450225</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.363000055493</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>2081.850044510426</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>1645.940259684871</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.165514843166</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
         <v>93.77009931885368</v>
@@ -7654,19 +7654,19 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M44" t="n">
-        <v>3595.48288019336</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N44" t="n">
-        <v>3708.325299372378</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>4688.504965942684</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>4688.504965942684</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
         <v>4688.504965942684</v>
@@ -7678,22 +7678,22 @@
         <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.78586499956</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316576</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250403</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661436</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240747</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.6625705404</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3531.436949455168</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>3424.98048829181</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>3329.890199438363</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>3235.769784765317</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>3152.385946381479</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>3067.000856647663</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>3025.265204463875</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>3051.328877624333</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>3375.887202590545</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>4030.593249216269</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>4030.593249216269</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>4030.593249216269</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>4030.593249216269</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>4030.593249216269</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>4030.593249216269</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>4571.332187848344</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>4688.504965942684</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>4625.049528391067</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>4494.870884721669</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>4318.534337721637</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>4119.416819783636</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>3934.09406551683</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>3779.22662975571</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>3652.740850534931</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7981,19 +7981,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8221,16 +8221,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>566.3319231075541</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8458,16 +8458,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8534,22 +8534,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761422</v>
+        <v>1005.588392177391</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>35.39394564341939</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8932,16 +8932,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M14" t="n">
-        <v>713.2395913281089</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>852.0369646460716</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9403,19 +9403,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>946.7571087441338</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>753.9218057523913</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10372,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10825,7 +10825,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>69.04441372935742</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10834,16 +10834,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>235.7492171845845</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11068,22 +11068,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,22 +11302,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>113.9822415949675</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>411.4732220987949</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>411.8858435779263</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444076</v>
+        <v>69.71657238081387</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>125.2343690875792</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7.682581114583357</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>135.3636110865068</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>229.4233680290237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>69.71657238081416</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>81.782726914053</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>72.02778736464012</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>194.0192887222342</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>114.1599680048243</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>411.4732220987949</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>194.0192887222342</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>646202.8412970853</v>
+        <v>646202.8412970852</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>646202.8412970852</v>
+        <v>646202.8412970853</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>605989.9258722579</v>
+        <v>605989.9258722578</v>
       </c>
     </row>
     <row r="16">
@@ -26322,10 +26322,10 @@
         <v>321688.391934245</v>
       </c>
       <c r="E2" t="n">
-        <v>296442.8825931295</v>
+        <v>296442.8825931296</v>
       </c>
       <c r="F2" t="n">
-        <v>296442.8825931295</v>
+        <v>296442.8825931296</v>
       </c>
       <c r="G2" t="n">
         <v>316114.5504824113</v>
@@ -26340,13 +26340,13 @@
         <v>316114.5504824113</v>
       </c>
       <c r="K2" t="n">
-        <v>316114.5504824113</v>
+        <v>316114.5504824112</v>
       </c>
       <c r="L2" t="n">
         <v>316114.5504824113</v>
       </c>
       <c r="M2" t="n">
-        <v>316114.5504824113</v>
+        <v>316114.5504824112</v>
       </c>
       <c r="N2" t="n">
         <v>316114.5504824113</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139383.7472389046</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="C4" t="n">
         <v>139383.7472389045</v>
@@ -26435,7 +26435,7 @@
         <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26444,7 +26444,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
         <v>41122.95192991271</v>
@@ -26524,46 +26524,46 @@
         <v>-115607.5784504621</v>
       </c>
       <c r="C6" t="n">
-        <v>108092.1201335828</v>
+        <v>108092.1201335827</v>
       </c>
       <c r="D6" t="n">
-        <v>108092.1201335828</v>
+        <v>108092.1201335827</v>
       </c>
       <c r="E6" t="n">
-        <v>35947.96461891805</v>
+        <v>35842.77499666346</v>
       </c>
       <c r="F6" t="n">
-        <v>186613.7181906661</v>
+        <v>186508.5285684115</v>
       </c>
       <c r="G6" t="n">
-        <v>168183.5507740983</v>
+        <v>168160.3264347157</v>
       </c>
       <c r="H6" t="n">
-        <v>197273.3599467061</v>
+        <v>197250.1356073235</v>
       </c>
       <c r="I6" t="n">
-        <v>197273.3599467061</v>
+        <v>197250.1356073234</v>
       </c>
       <c r="J6" t="n">
-        <v>22622.011229</v>
+        <v>22598.78688961734</v>
       </c>
       <c r="K6" t="n">
-        <v>197273.359946706</v>
+        <v>197250.1356073233</v>
       </c>
       <c r="L6" t="n">
-        <v>197273.359946706</v>
+        <v>197250.1356073235</v>
       </c>
       <c r="M6" t="n">
-        <v>71522.27161101528</v>
+        <v>71499.04727163256</v>
       </c>
       <c r="N6" t="n">
-        <v>197273.3599467061</v>
+        <v>197250.1356073234</v>
       </c>
       <c r="O6" t="n">
-        <v>186613.7181906661</v>
+        <v>186508.5285684115</v>
       </c>
       <c r="P6" t="n">
-        <v>186613.7181906661</v>
+        <v>186508.5285684115</v>
       </c>
     </row>
   </sheetData>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>185.8757317238699</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>372.7964946687787</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>54.79268646174609</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>84.6338082530489</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3.32966510043002</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>369.8422500230728</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27669,13 +27669,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.8561827421952</v>
+        <v>86.5576416575629</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>143.6516710866787</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34941,16 +34941,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>566.3319231075541</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35178,16 +35178,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35254,22 +35254,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761422</v>
+        <v>1005.588392177391</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>35.39394564341939</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35652,16 +35652,16 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M14" t="n">
-        <v>713.2395913281089</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>852.0369646460716</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36123,19 +36123,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>946.7571087441338</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36618,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36855,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37080,7 +37080,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>753.9218057523913</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37092,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37545,7 +37545,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>69.04441372935742</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37554,16 +37554,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>235.7492171845845</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38022,22 +38022,22 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>113.9822415949675</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
